--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg5657187-my.sharepoint.com/personal/lbeqiri_telquestintl_com/Documents/Desktop/vendor comparison/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DSC-LAP-004\PycharmProjects\ClientProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_E212C24AFF2EDDF991B150AD57C2EF7B997CCB40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0B7473C-4117-4CC6-9EE2-58284BD1877A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21024" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Changes</t>
   </si>
@@ -42,18 +50,6 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>Cisco Refresh</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>.xls</t>
-  </si>
-  <si>
     <t>Sheet1</t>
   </si>
   <si>
@@ -94,12 +90,51 @@
   </si>
   <si>
     <t>telquestftp.com</t>
+  </si>
+  <si>
+    <t>Results Ftp Path</t>
+  </si>
+  <si>
+    <t>/telquestftp.com/results/</t>
+  </si>
+  <si>
+    <t>Source Ftp Url</t>
+  </si>
+  <si>
+    <t>Source Ftp User</t>
+  </si>
+  <si>
+    <t>Source Ftp Pass</t>
+  </si>
+  <si>
+    <t>Source Ftp Port</t>
+  </si>
+  <si>
+    <t>Source Ftp Path</t>
+  </si>
+  <si>
+    <t>Source Ftp Filename</t>
+  </si>
+  <si>
+    <t>.xlsx</t>
+  </si>
+  <si>
+    <t>Jenne</t>
+  </si>
+  <si>
+    <t>/telquestftp.com/jenne/</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Phone No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,30 +523,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" customWidth="1"/>
     <col min="10" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.85546875" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -525,75 +567,117 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M2" s="2">
         <v>21</v>
       </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="2">
+        <v>21</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
@@ -607,8 +691,15 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -622,6 +713,13 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DSC-LAP-004\PycharmProjects\ClientProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg5657187-my.sharepoint.com/personal/lbeqiri_telquestintl_com/Documents/Desktop/Vendor-List-Comparison-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_E2125C028785BFEF78A320062323043FACD6CC15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D14C940-8AB7-4752-A665-A792DA4B8448}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21024" windowHeight="9972"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Changes</t>
   </si>
@@ -68,9 +60,6 @@
     <t>Postfix</t>
   </si>
   <si>
-    <t>CRF</t>
-  </si>
-  <si>
     <t>admin@telquestftp.com</t>
   </si>
   <si>
@@ -116,29 +105,55 @@
     <t>Source Ftp Filename</t>
   </si>
   <si>
-    <t>.xlsx</t>
-  </si>
-  <si>
     <t>Jenne</t>
   </si>
   <si>
-    <t>/telquestftp.com/jenne/</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Phone No</t>
+    <t>QQJjd2345</t>
+  </si>
+  <si>
+    <t>ManPartNum</t>
+  </si>
+  <si>
+    <t>ListPr</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>Jenne - old</t>
+  </si>
+  <si>
+    <t>JEN</t>
+  </si>
+  <si>
+    <t>ftp.jenne.com</t>
+  </si>
+  <si>
+    <t>TE07004</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,10 +210,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,8 +226,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,37 +543,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" customWidth="1"/>
-    <col min="10" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -582,102 +603,102 @@
         <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M2" s="2">
         <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="S2" s="2">
         <v>21</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
@@ -699,7 +720,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -722,7 +743,10 @@
       <c r="T4" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{91694098-3E04-4351-BFD4-91ED2D901CE5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg5657187-my.sharepoint.com/personal/lbeqiri_telquestintl_com/Documents/Desktop/Vendor-List-Comparison-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DSC-LAP-004\PycharmProjects\ClientProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_E2125C028785BFEF78A320062323043FACD6CC15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D14C940-8AB7-4752-A665-A792DA4B8448}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21024" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,31 +116,31 @@
     <t>ListPr</t>
   </si>
   <si>
+    <t>Jenne - old</t>
+  </si>
+  <si>
+    <t>JEN</t>
+  </si>
+  <si>
+    <t>ftp.jenne.com</t>
+  </si>
+  <si>
+    <t>TE07004</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
     <t>.csv</t>
-  </si>
-  <si>
-    <t>Jenne - old</t>
-  </si>
-  <si>
-    <t>JEN</t>
-  </si>
-  <si>
-    <t>ftp.jenne.com</t>
-  </si>
-  <si>
-    <t>TE07004</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,38 +542,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -636,7 +635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -650,25 +649,25 @@
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>27</v>
@@ -677,10 +676,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>17</v>
@@ -698,7 +697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
@@ -720,7 +719,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -744,7 +743,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{91694098-3E04-4351-BFD4-91ED2D901CE5}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Changes</t>
   </si>
@@ -110,9 +110,6 @@
     <t>QQJjd2345</t>
   </si>
   <si>
-    <t>ManPartNum</t>
-  </si>
-  <si>
     <t>ListPr</t>
   </si>
   <si>
@@ -135,6 +132,15 @@
   </si>
   <si>
     <t>.csv</t>
+  </si>
+  <si>
+    <t>ItemNum</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Local</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,21 +565,21 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5546875" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5546875" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -602,40 +608,43 @@
         <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -643,61 +652,64 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>21</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>21</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
@@ -718,8 +730,9 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -740,10 +753,11 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
